--- a/biology/Zoologie/Fejervarya_multistriata/Fejervarya_multistriata.xlsx
+++ b/biology/Zoologie/Fejervarya_multistriata/Fejervarya_multistriata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fejervarya multistriata est une espèce d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fejervarya multistriata est une espèce d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre à Taïwan et dans le sud de la Chine du Yunnan au Guangdong, à Hong Kong et à Hainan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre à Taïwan et dans le sud de la Chine du Yunnan au Guangdong, à Hong Kong et à Hainan.
 Sa présence est incertaine en Birmanie, au Laos, en Thaïlande et au Viêt Nam.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hallowell, 1861 "1860" : Report upon the Reptilia of the North Pacific Exploring Expedition, under command of Capt. John Rogers, U. S. N. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 480-510 (texte intégral).</t>
         </is>
